--- a/HIMNOS.xlsx
+++ b/HIMNOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf1cc8aeed3765b8/Escritorio/GUIADOR IDMJI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf1cc8aeed3765b8/Escritorio/GUIADOR PLUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F78DD771-345E-4B2D-BBA4-D0438E4FC9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6669F2E-3ED2-4DC9-A48D-3807481494C7}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{F78DD771-345E-4B2D-BBA4-D0438E4FC9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6974DC37-D25E-4898-838B-DDCE4BB3EB0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0F926F15-85A1-44AD-8A19-215EB0C3F090}"/>
   </bookViews>
@@ -41,18 +41,6 @@
     <t>TITULO</t>
   </si>
   <si>
-    <t xml:space="preserve">  LA DOXOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL APOSENTO ALTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LLUVIAS DE GRACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JESÚS VENDRÁ OTRA VEZ</t>
-  </si>
-  <si>
     <t>DULCE COMUNIÓN</t>
   </si>
   <si>
@@ -62,108 +50,27 @@
     <t>LIBERTAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> TODO A CRISTO YO ME RINDO</t>
-  </si>
-  <si>
     <t>LA SIEMBRA</t>
   </si>
   <si>
     <t>GLORIA SIN FIN</t>
   </si>
   <si>
-    <t>CRISTO QUIERE LIMPIOS  CORAZONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARIÑOSO SALVADOR</t>
-  </si>
-  <si>
     <t>ROCA DE LA ETERNIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> FIRMES Y ADELANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRATO ES DECIR LA HISTORIA</t>
-  </si>
-  <si>
     <t>¿OYES COMO EL EVANGELIO?</t>
   </si>
   <si>
-    <t xml:space="preserve"> CUANDO ALLÁ SE PASE LISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANDANDO EN LA LUZ</t>
-  </si>
-  <si>
     <t>¡OH, CUÁN DULCE!</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALLÍ NO HABRÁ TRIBULACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡PAZ!  ¡PAZ!  ¡CUÁN DULCE PAZ!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MÁS DE JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACEPTA EL PERDÓN DE JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CUANDO MI NOMBRE SE ESCUCHE EN LA GLORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A JESÚS PREFIERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOZO TE DARÁ JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ES CRISTO QUIEN POR MÍ MURIÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CORAZONES SIEMPRE ALEGRES</t>
-  </si>
-  <si>
     <t>LLAMA PENTECOSTÉS</t>
   </si>
   <si>
-    <t xml:space="preserve"> AL SONAR DE LA TROMPETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIVINO COMPAÑERO DEL CAMINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOZO DA SERVIR A CRISTO</t>
-  </si>
-  <si>
     <t>MARAVILLOSA GRACIA</t>
   </si>
   <si>
-    <t>¿CUÁN GRANDE AMOR!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO HALLO CÓMO AGRADAR A JESUCRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ES EL TIEMPO DE LA SIEGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LLENA DE AMOR MI CAMINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VEN A CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN PECADOS Y TEMOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADELANTE CON VALOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIOS CUIDARÁ DE TI</t>
-  </si>
-  <si>
     <t>NUESTRA FORTALEZA</t>
   </si>
   <si>
@@ -173,630 +80,138 @@
     <t>ME GUIA ÉL</t>
   </si>
   <si>
-    <t xml:space="preserve"> YO SÉ QUE CRISTO MΕ ΑΜΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEL SANTO AMOR DE CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABRE MIS OJOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡OH DIOS DE AMOR PERFECTO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MI AMOR Y VIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡OH, QUÉ AMIGO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CERCA DE TI, SEÑOR</t>
-  </si>
-  <si>
     <t>DULCE ORACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> MI FE ESPERA EN ΤΙ</t>
-  </si>
-  <si>
     <t>ESTRELLAS EN MI CORONA</t>
   </si>
   <si>
-    <t xml:space="preserve"> LLEVAS SOLO TU CARGA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA CRUZ Y LA GRACIA DE DIOS</t>
-  </si>
-  <si>
     <t>¡BIENVENIDOS!</t>
   </si>
   <si>
-    <t xml:space="preserve"> VEN AMIGO A JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAMINANDO, CAMINANDO</t>
-  </si>
-  <si>
     <t>BELLAS MANSIONES</t>
   </si>
   <si>
-    <t xml:space="preserve"> POR CRISTALINOS MARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO SOY UN POBRE PEREGRINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VEN EN POS DE MÍ</t>
-  </si>
-  <si>
     <t>¡OH! CRISTO MÍO</t>
   </si>
   <si>
-    <t xml:space="preserve"> DESPUÉS DE LA TORMENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESCOGIDO FUI DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡BENDICIONES, CUÁNTAS TIENES YA!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN LAS HORAS AMARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL QUE HABITA AL ABRIGO DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ENTENDEREMOS NUESTRAS ANGUSTIAS</t>
-  </si>
-  <si>
     <t>FIRME ESTARÉ</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOLO NO ESTOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA VID Y LOS PAMPANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A TU LADO QUIERO ANDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO ES MÍO</t>
-  </si>
-  <si>
     <t>SOY LA TRISTE OVEJA</t>
   </si>
   <si>
     <t>NADIE PUDO AMARME COMO CRISTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> UN NOMBRE NUEVO EN LA GLORIA</t>
-  </si>
-  <si>
-    <t>TOMA DE LA FUENTE DE AGUA VIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO HAY SENDA SINO ÉL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOLO EN JESUS</t>
-  </si>
-  <si>
     <t>CANTEN CON ALEGRÍA</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOY FELIZ</t>
-  </si>
-  <si>
     <t>AÑOS MI ALMA EN VANIDAD VIVIÓ</t>
   </si>
   <si>
-    <t xml:space="preserve"> YO SÓLO ESPERO ESE DÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MI VIDA DI POR TI</t>
-  </si>
-  <si>
     <t>JEHOVÁ ES MI PASTOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> EL LIRIO DE LOS VALLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MI PASTOR ES JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡MAESTRO, SE ENCRESPAN LAS AGUAS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA MUJER SAMARITANA</t>
-  </si>
-  <si>
     <t>ALABAD AL DIOS POTENTE</t>
   </si>
   <si>
     <t>AL REY ADORAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡OH! QUE TUVIERA LENGUAS MIL</t>
-  </si>
-  <si>
     <t>¡ADORADLE!</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡SANTO, SANTO, GRANDE, ETERNO DIOS!</t>
-  </si>
-  <si>
-    <t>ALABAD AL GRAN REY</t>
-  </si>
-  <si>
     <t>JESÚS ES MI REY SOBERANO</t>
   </si>
   <si>
     <t>GRANDE ES TU FIDELIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¿CUÁN GRANDE ES ÉL!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN EL PECADO SIEMPRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MI BUEN PASTOR</t>
-  </si>
-  <si>
     <t>HAY UN PRECIOSO MANANTIAL</t>
   </si>
   <si>
     <t>EN EL VALLE FLORECE LA ROSA</t>
   </si>
   <si>
-    <t xml:space="preserve"> HERMOSO AMOR</t>
-  </si>
-  <si>
-    <t>MARCHE YA DE EGIPTO</t>
-  </si>
-  <si>
     <t>SUPREMA ALABANZA</t>
   </si>
   <si>
-    <t xml:space="preserve"> HAY MUCHOS QUE NUNCA COMPRENDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡LISTO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA ÚLTIMA MILLA DEL CAMINO</t>
-  </si>
-  <si>
     <t>VOY FELIZ AL DULCE HOGAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> EN MALDAD, SIN ESPERANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOS CAMINOS FATIGADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿A DÓNDE IRÉ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JUNTO A LA CRUZ</t>
-  </si>
-  <si>
     <t>MÁS ALLÁ DEL SOL</t>
   </si>
   <si>
     <t>VIVO POR CRISTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> YO GUIARÉ</t>
-  </si>
-  <si>
     <t>TENGO UN AMIGO</t>
   </si>
   <si>
     <t>YO CONFÍO EN JESÚS</t>
   </si>
   <si>
-    <t xml:space="preserve"> NO ME PASES, NO ME OLVIDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡OH, PADRE, ETERNO DIOS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A CRISTO DOY MI CANTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOORES DAD A CRISTO EL REY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONFIANDO SOLO EN JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡LOOR A TI, SEÑOR!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMPRADO CON SANGRE POR CRISTO</t>
-  </si>
-  <si>
     <t>HAY UN CANTO NUEVO EN MI SER</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA GRACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMOROSO SALVADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A LA LUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MÁS ALLÁ EL DÍA VIENE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GUARDA EL CONTACTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> POR GRACIA ME SOSTENDRÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TEMPLOS DE DIOS SOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CUANDO ESTEMOS EN GLORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡GLORIA A MI JESUS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO HAY MÁS QUE UNO</t>
-  </si>
-  <si>
     <t>HAY MUCHOS QUE VIVEN EN DENSAS TINIEBLAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> PECADOR, VEN AL DULCE JESÚS</t>
-  </si>
-  <si>
     <t>VENID TODOS A LA LID</t>
   </si>
   <si>
-    <t xml:space="preserve"> A LA BATALLA Y A LA VICTORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALLÍ LA PUERTA FRANCA ESTÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIOS BENDIGA LAS ALMAS UNIDAS</t>
-  </si>
-  <si>
     <t>A DIOS, NACIONES, DAD LOOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA LUCHA SIGUE</t>
-  </si>
-  <si>
     <t>NÍTIDO RAYO POR CRISTO</t>
   </si>
   <si>
-    <t>¡OH JÓVENES, VENID!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO ESPERO LA MAÑANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BELLAS PALABRAS DE VIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRESENTIMOS DEL MUNDO DICHOSO</t>
-  </si>
-  <si>
     <t>¡OH!, BONDAD TAN INFINITA</t>
   </si>
   <si>
-    <t xml:space="preserve"> EN JESÚS, MI SALVADOR</t>
-  </si>
-  <si>
     <t>CANTA, ¡OH BUEN CRISTIANO!</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡GLORIA A TI, JESÚS DIVINO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LAS SANTAS ESCRITURAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡TRABAJAD! ¡TRABAJAD!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MI ESPÍRITU, ALMA Y CUERPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO TE DE TEMOR HABLAR POR CRISTO</t>
-  </si>
-  <si>
     <t>¡OH CRISTO MÍO!</t>
   </si>
   <si>
-    <t xml:space="preserve"> DESPLIEGUE EL CRISTIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JESÚS, YO HE PROMETIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDITAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRANDES COSAS CRISTO HA HECHO PARA MI!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA PALABRA HOY SEMBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY UN LUGAR DO QUIERO ESTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARA A CARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY PODER EN JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO ES MI DULCE SALVADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ¡LOORES A DIOS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRANDE GOZO HAY EN MI ALMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANTO ESPÍRITU, DESCIENDE</t>
-  </si>
-  <si>
     <t>CRISTO, EL REY DE LA GLORIA</t>
   </si>
   <si>
-    <t>. JESÚS ES TODO PARA MÍ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VOZ DE GRATITUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OH AMOR QUE NO ME DEJARÁS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY UN MUNDO FELIZ MÁS ALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO LO HAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÉL CUIDARÁ DE MÍ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CON VOZ BENIGNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BIENAVENTURADOS LOS DE LIMPIO CORAZÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAUTICESE CADA UNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FUENTE DE LA VIDA ETERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LAS BUENAS NUEVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ME BUSCA A MÍ</t>
-  </si>
-  <si>
     <t>CUANDO TE QUIERO MÁS</t>
   </si>
   <si>
     <t>VIENE OTRA VEZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> QUIERO VER MI PATRIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA FUENTE SANADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIEMPRE ORAD</t>
-  </si>
-  <si>
     <t>TÚ AMARÁS A CRISTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA LUZ DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTAD POR CRISTO A </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ME LEVANTÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PUEDO OIR LA VOZ DE CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VALOR Y FE</t>
-  </si>
-  <si>
-    <t>EN BUSCA DE  OBREROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TENDRÁS QUE RENACER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CANTARE LA MARAVILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ENTERA CONSAGRACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANTA BIBLIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN LOS NEGOCIOS DEL REY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A JESUCRISTO VEN SIN TARDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YA TODO DEJÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿ERES LIMPIO EN LA SANGRE?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MÁS BLANCO QUE LA NIEVE</t>
-  </si>
-  <si>
-    <t>DONDEQUIERA CON JESÚS</t>
-  </si>
-  <si>
     <t>EN LA VIÑA DEL SEÑOR</t>
   </si>
   <si>
-    <t>TE LOAMOS, IOH DIOS!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CRISTO LA ROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  EN LA CRUZ</t>
-  </si>
-  <si>
     <t>QUE HAGA EN TI SU VOLUNTAD</t>
   </si>
   <si>
-    <t xml:space="preserve"> EL MUNDO PERDIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ¡OH, YO QUIERO ANDAR CON!  ¡CRISTO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GLORIA AL CORDERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PUEDO ENTONCES CONOCERLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡TE QUIERO, MI SEÑOR!</t>
-  </si>
-  <si>
-    <t>NADA HAY QUE ME PUEDA  APARTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CON CRISTO YO IRÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIOS OS GUARDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VOLUNTARIOS DE JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A SOLAS CON JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ¡SALUD!  ¡SALUD!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE MI TIERNO SALVADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIBRE ESTOY</t>
-  </si>
-  <si>
     <t>LAS PROMESAS DE JESÚS</t>
   </si>
   <si>
-    <t xml:space="preserve"> EL MEJOR AMIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JESÚS ES MI AMIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL MUNDO NO ES MI HOGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMA EL PASTOR SUS OVEJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DULCE CONSUELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN JESÚS, MI SEÑOR, ENCONTRÉ  DULCE PAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UN DÍA CRISTO VOLVERÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LAS PISADAS DEL MAESTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL CONSAGRADO A MI JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL NOMBRE DE JESÚS</t>
-  </si>
-  <si>
     <t>HUBO QUIEN POR MIS CULPAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA SENDA ES EXTRECHA</t>
-  </si>
-  <si>
     <t>MI CULPA ÉL LLEVÓ</t>
   </si>
   <si>
-    <t xml:space="preserve"> CUANDO ANDEMOS CON DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GUÍAME, ¡OH SALVADOR!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CUANDO EL VINO A MI CORAZÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡SANTO!  ¡SANTO!  ¡SANTO!</t>
-  </si>
-  <si>
     <t>MÁS CUAL JESÚS</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRECIOSO ES JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIA FELIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JAMÁS SE DICE ADIÓS ALLÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DILO A CRISTO</t>
-  </si>
-  <si>
-    <t>TUYO SOY, JESÚS</t>
-  </si>
-  <si>
     <t>EL CONSOLADOR HA VENIDO</t>
   </si>
   <si>
     <t>CUANDO DIOS LA SANGRE VE</t>
   </si>
   <si>
-    <t xml:space="preserve"> A TI YA MÍ</t>
-  </si>
-  <si>
     <t>PUEDO OIR TU VOZ LLAMANDO</t>
   </si>
   <si>
@@ -812,22 +227,607 @@
     <t>CERCA, MÁS CERCA</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡OH, EXCELSA GRACIA DEL  AMOR!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO ANDO CON CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BRILLA EN TU LUGAR</t>
-  </si>
-  <si>
-    <t>LA GLORIOSA APARICIÓN</t>
-  </si>
-  <si>
     <t>NUMERO</t>
   </si>
   <si>
-    <t xml:space="preserve"> ORACIÓN DE MATRIMONIO</t>
+    <t>LA DOXOLOGÍA</t>
+  </si>
+  <si>
+    <t>EL APOSENTO ALTO</t>
+  </si>
+  <si>
+    <t>LLUVIAS DE GRACIA</t>
+  </si>
+  <si>
+    <t>JESÚS VENDRÁ OTRA VEZ</t>
+  </si>
+  <si>
+    <t>TODO A CRISTO YO ME RINDO</t>
+  </si>
+  <si>
+    <t>CARIÑOSO SALVADOR</t>
+  </si>
+  <si>
+    <t>GRATO ES DECIR LA HISTORIA</t>
+  </si>
+  <si>
+    <t>CUANDO ALLÁ SE PASE LISTA</t>
+  </si>
+  <si>
+    <t>ANDANDO EN LA LUZ</t>
+  </si>
+  <si>
+    <t>ALLÍ NO HABRÁ TRIBULACIÓN</t>
+  </si>
+  <si>
+    <t>ACEPTA EL PERDÓN DE JESÚS</t>
+  </si>
+  <si>
+    <t>HAY PODER EN JESÚS</t>
+  </si>
+  <si>
+    <t>¡LOORES A DIOS!</t>
+  </si>
+  <si>
+    <t>GRANDE GOZO HAY EN MI ALMA</t>
+  </si>
+  <si>
+    <t>CRISTO QUIERE LIMPIOS CORAZONES</t>
+  </si>
+  <si>
+    <t>FIRMES Y ADELANTES</t>
+  </si>
+  <si>
+    <t>¡PAZ! ¡PAZ! ¡CUÁN DULCE PAZ!</t>
+  </si>
+  <si>
+    <t>MAS DE JESÚS</t>
+  </si>
+  <si>
+    <t>CRISTO ES MI DULCE SALVDOR</t>
+  </si>
+  <si>
+    <t>TENDRÁS QUE RENACER</t>
+  </si>
+  <si>
+    <t>CANTARE LA MARAVILLA</t>
+  </si>
+  <si>
+    <t>ENTERA CONSAGRACIÓN</t>
+  </si>
+  <si>
+    <t>SANTA BIBLIA</t>
+  </si>
+  <si>
+    <t>EN LOS NEGOCIOS DEL REY</t>
+  </si>
+  <si>
+    <t>A JESUCRISTO VEN SIN TARDAR</t>
+  </si>
+  <si>
+    <t>YA TODO DEJÉ</t>
+  </si>
+  <si>
+    <t>¿ERES LIMPIO EN LA SANGRE?</t>
+  </si>
+  <si>
+    <t>MAS BLANCO QUE EN LA NIEVE</t>
+  </si>
+  <si>
+    <t>DONDE QUIERA CON JESÚS</t>
+  </si>
+  <si>
+    <t>TE LOAMOS, ¡OH DIOS!</t>
+  </si>
+  <si>
+    <t>CRISTO LA ROCA</t>
+  </si>
+  <si>
+    <t>EN LA CRUZ</t>
+  </si>
+  <si>
+    <t>EL MUNDO PERDIDO</t>
+  </si>
+  <si>
+    <t>¡OH, YO QUIERO ANDAR CON CRISTO!</t>
+  </si>
+  <si>
+    <t>GLORIA AL CORDERO</t>
+  </si>
+  <si>
+    <t>PUEDO ENTONCES CONOCERLE</t>
+  </si>
+  <si>
+    <t>¡TE QUIERO, MI SEÑOR!</t>
+  </si>
+  <si>
+    <t>NADA HAY QUE ME PUEDA APARTAR</t>
+  </si>
+  <si>
+    <t>CON CRISTO YO IRÉ</t>
+  </si>
+  <si>
+    <t>DIOS OS GUARDE</t>
+  </si>
+  <si>
+    <t>VOLUNTARIOS DE JESÚS</t>
+  </si>
+  <si>
+    <t>A SOLAS CON JESÚS</t>
+  </si>
+  <si>
+    <t>¡SALUD! ¡SALUD!</t>
+  </si>
+  <si>
+    <t>DE MI TIERNO SALVADOR</t>
+  </si>
+  <si>
+    <t>LIBRE ESTOY</t>
+  </si>
+  <si>
+    <t>PRECIOSO ES JESÚS</t>
+  </si>
+  <si>
+    <t>DIA FELIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMÁS SE DICE ADIÓS ALLÁ </t>
+  </si>
+  <si>
+    <t>DILO A CRISTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUYO SOY, JESÚS </t>
+  </si>
+  <si>
+    <t>A TI Y A MÍ</t>
+  </si>
+  <si>
+    <t>¡OH, EXCELSA GRACIA DEL AMOR!</t>
+  </si>
+  <si>
+    <t>YO ANDO CON CRISTO</t>
+  </si>
+  <si>
+    <t>BRILLA EN TU LUGAR</t>
+  </si>
+  <si>
+    <t>LA GLORIASA APARICIÓN</t>
+  </si>
+  <si>
+    <t>¡SANTO! ¡SANTO! ¡SANTO!</t>
+  </si>
+  <si>
+    <t>CUANDO EL VINO A MI CORAZÓN</t>
+  </si>
+  <si>
+    <t>GUÍAME, ¡OH SALVADOR!</t>
+  </si>
+  <si>
+    <t>CUANDO ANDEMOS CON DIOS</t>
+  </si>
+  <si>
+    <t>LA SENDA ES EXTRECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL NOMBRE DE JESÚS </t>
+  </si>
+  <si>
+    <t>HE CONSAGRADO A MI JESÚS</t>
+  </si>
+  <si>
+    <t>LAS PISADAS DEL MAESTRO</t>
+  </si>
+  <si>
+    <t>UN DÍA CRISTO VOLVERÁ</t>
+  </si>
+  <si>
+    <t>EN JESÚS, MI SEÑOR, ENCONTRÉ DULCE PAZ</t>
+  </si>
+  <si>
+    <t>DULCE CONSUELO</t>
+  </si>
+  <si>
+    <t>AMA EL PASTOR SUS OVEJAS</t>
+  </si>
+  <si>
+    <t>EL MUNDO NO ES MI HOGAR</t>
+  </si>
+  <si>
+    <t>JESÚS ES MI AMIGO</t>
+  </si>
+  <si>
+    <t>EL MEJOR AMIGO</t>
+  </si>
+  <si>
+    <t>EN BUSCA DE OBREROS</t>
+  </si>
+  <si>
+    <t>VALOR Y FE</t>
+  </si>
+  <si>
+    <t>PUEDO OIR LA VOZ DE CRISTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME LEVANTÓ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTAD POR CRISTO FIRMES </t>
+  </si>
+  <si>
+    <t>LA LUZ DE DIOS</t>
+  </si>
+  <si>
+    <t>SIEMPRE ORAD</t>
+  </si>
+  <si>
+    <t>LA FUENTE SANADORA</t>
+  </si>
+  <si>
+    <t>QUIERO VER MI PATRIA</t>
+  </si>
+  <si>
+    <t>ME USCA A MÍ</t>
+  </si>
+  <si>
+    <t>LA BUENAS NUEVAS</t>
+  </si>
+  <si>
+    <t>FUENTE DE LA VIDA ETERNA</t>
+  </si>
+  <si>
+    <t>BAUTÍCESE CADA UNO</t>
+  </si>
+  <si>
+    <t>BIENAVENTURADOS LOS DE LIMPIO CORAZÓN</t>
+  </si>
+  <si>
+    <t>CON VOZ BENIGNA</t>
+  </si>
+  <si>
+    <t>ÉL CUIDARÁ DE MÍ</t>
+  </si>
+  <si>
+    <t>NO LO HAY</t>
+  </si>
+  <si>
+    <t>HAY UN MUNDO FELIZ MÁS ALLÁ</t>
+  </si>
+  <si>
+    <t>¡OH AMOR QUE NO ME DEJARÁS!</t>
+  </si>
+  <si>
+    <t>VOZ DE GRATITUD</t>
+  </si>
+  <si>
+    <t>JESÚS ES TODO PARA MÍ</t>
+  </si>
+  <si>
+    <t>SANTO ESPIRITU, DESCIENDE</t>
+  </si>
+  <si>
+    <t>CARA A CARA</t>
+  </si>
+  <si>
+    <t>HAY UN LUGAR DO QUIERO ESTAR</t>
+  </si>
+  <si>
+    <t>LA PALABRA HOY SEMBRADA</t>
+  </si>
+  <si>
+    <t>¡GRANDES COSAS CRISTO HA HECHO PARA MÍ!</t>
+  </si>
+  <si>
+    <t>MEDITAD</t>
+  </si>
+  <si>
+    <t>JESÚS, YO HE PROMETIDO</t>
+  </si>
+  <si>
+    <t>DESPLIEGUE EL CRISTIANO</t>
+  </si>
+  <si>
+    <t>NO TE DÉ TEMOR HABLAR POR CRISTO</t>
+  </si>
+  <si>
+    <t>MI ESPÍRITU, ALMA Y CUERPO</t>
+  </si>
+  <si>
+    <t>¡TABAJAD! ¡TRABAJAD!</t>
+  </si>
+  <si>
+    <t>LAS SANTAS ESCRITURAS</t>
+  </si>
+  <si>
+    <t>¡GLORIA A TI, JESÚS DIVINO!</t>
+  </si>
+  <si>
+    <t>EN JESÚS, MI SALVADOR</t>
+  </si>
+  <si>
+    <t>PRESENTIMOS DEL MUNDO DICHOSO</t>
+  </si>
+  <si>
+    <t>BELLAS PALABRAS DE VIDA</t>
+  </si>
+  <si>
+    <t>YO ESPERO LA MAÑANA</t>
+  </si>
+  <si>
+    <t>¡OH JÓVENES; VENID!</t>
+  </si>
+  <si>
+    <t>LA LUCHA SIGUE</t>
+  </si>
+  <si>
+    <t>DIOS BENDIGA LAS ALMAS UNIDAS</t>
+  </si>
+  <si>
+    <t>ALLÍ LA PUERTA FANCA ESTÁ</t>
+  </si>
+  <si>
+    <t>A LA BATALLA Y A LA VICTORIA</t>
+  </si>
+  <si>
+    <t>PECADOR, VEN AL DULCE JESÚS</t>
+  </si>
+  <si>
+    <t>NO HAY MÁS QUE UNO</t>
+  </si>
+  <si>
+    <t>¡GLORIA A MI JESÚS!</t>
+  </si>
+  <si>
+    <t>CUANDO ESTEMOS EN GLORIA</t>
+  </si>
+  <si>
+    <t>TEMPLOS DE DIOS SOIS</t>
+  </si>
+  <si>
+    <t>POR GRACIA ME SOSTENDRÁ</t>
+  </si>
+  <si>
+    <t>GUARDA EL CONTACTO</t>
+  </si>
+  <si>
+    <t>MÁS ALLÁ EL DÍA VIENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A LA LUCHA </t>
+  </si>
+  <si>
+    <t>AMOROSO SALVADOR</t>
+  </si>
+  <si>
+    <t>LA GRACIA</t>
+  </si>
+  <si>
+    <t>COMPRADO CON SANGRE POR CRISTO</t>
+  </si>
+  <si>
+    <t>¡LOOR A TI, SEÑOR!</t>
+  </si>
+  <si>
+    <t>CONFIANDO SOLO EN JESÚS</t>
+  </si>
+  <si>
+    <t>LOORES DAD A CRISTO EL REY</t>
+  </si>
+  <si>
+    <t>A CRISTO DOY MI CANTO</t>
+  </si>
+  <si>
+    <t>¡OH, MI PADRE, ETERNO DIOS!</t>
+  </si>
+  <si>
+    <t>NO ME PASE, NO ME OLVIDES</t>
+  </si>
+  <si>
+    <t>YO GUIARÉ</t>
+  </si>
+  <si>
+    <t>JUNTO A LA CRUZ</t>
+  </si>
+  <si>
+    <t>¿ A DÓNDE IRÉ?</t>
+  </si>
+  <si>
+    <t>LOS CAMINOS FATIGADOS</t>
+  </si>
+  <si>
+    <t>EN MALDA, SIN ESPERANZA</t>
+  </si>
+  <si>
+    <t>LA ÚLTIMA MILLA DEL CAMINO</t>
+  </si>
+  <si>
+    <t>¡LISTO!</t>
+  </si>
+  <si>
+    <t>EL LIRIO DE LOS VALLES</t>
+  </si>
+  <si>
+    <t>HAY MUCHOS QUE NUNCA COMPRENDEN</t>
+  </si>
+  <si>
+    <t>MARCHÉ YA DE EGIPTO</t>
+  </si>
+  <si>
+    <t>HERMOSO AMOR</t>
+  </si>
+  <si>
+    <t>MI BUEN PASTOR</t>
+  </si>
+  <si>
+    <t>EN EL PECADO SIMPRE</t>
+  </si>
+  <si>
+    <t>¡CUÁN GRRANDE ES ÉL!</t>
+  </si>
+  <si>
+    <t>ALABAD ALA GRAN REY</t>
+  </si>
+  <si>
+    <t>¡SANTO, SANTO, GRANDE, ETERNO DIOS!</t>
+  </si>
+  <si>
+    <t>¡OH! QUE TUVIERA LENGUAS MIL</t>
+  </si>
+  <si>
+    <t>LA MUJER SAMARITANA</t>
+  </si>
+  <si>
+    <t>¡MAESTRO, SE ENCRESPAN LAS AGUAS!</t>
+  </si>
+  <si>
+    <t>MI PASTOR ES JESÚS</t>
+  </si>
+  <si>
+    <t>MI VIDA DI POR TI</t>
+  </si>
+  <si>
+    <t>YO SÓLO ESPERO ESE DÍA</t>
+  </si>
+  <si>
+    <t>SOY FELIZ</t>
+  </si>
+  <si>
+    <t>SOLO EN JESÚS</t>
+  </si>
+  <si>
+    <t>NO HAY SENDA SINO ÉL</t>
+  </si>
+  <si>
+    <t>TOMA DE LA FUENTE DE AGUA VIDA</t>
+  </si>
+  <si>
+    <t>UN NOMBRE NUEVO EN LA GLORIA</t>
+  </si>
+  <si>
+    <t>CRISTO ES MÍO</t>
+  </si>
+  <si>
+    <t>A TU LADO QUIERO ANDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA VID Y LOS PÁMPANOS </t>
+  </si>
+  <si>
+    <t>SOLO NO ESTOY</t>
+  </si>
+  <si>
+    <t>ENTENDEREMOS NUESTRAS ANGUSTIAS</t>
+  </si>
+  <si>
+    <t>EL QUE HABITA ALA BRIGO DE DIOS</t>
+  </si>
+  <si>
+    <t>EN LAS HORAS AMARGAS</t>
+  </si>
+  <si>
+    <t>¡BENDICIONES, CUÁNTAS TIENES YA!</t>
+  </si>
+  <si>
+    <t>ESCOGIDO FUI DE DIOS</t>
+  </si>
+  <si>
+    <t>DESPUÉS DE LA TORMETA</t>
+  </si>
+  <si>
+    <t>VEN EN POS DE MÍ</t>
+  </si>
+  <si>
+    <t>YO SOY UN POBRE PEREGRINO</t>
+  </si>
+  <si>
+    <t>POR CRISTALINOS MARES</t>
+  </si>
+  <si>
+    <t>CAMINANDO, CAMINANDO</t>
+  </si>
+  <si>
+    <t>VEN AMIGO A JESÚS</t>
+  </si>
+  <si>
+    <t>LA CRUZ Y LA GRACIA DE DIOS</t>
+  </si>
+  <si>
+    <t>¿LLEVAS SOLO TU CARGA?</t>
+  </si>
+  <si>
+    <t>MI FE ESPERA EN TI</t>
+  </si>
+  <si>
+    <t>CERCA DE TI, SEÑOR</t>
+  </si>
+  <si>
+    <t>¡OH, QUÉ AMIGO!</t>
+  </si>
+  <si>
+    <t>MI AMOR Y VIDA</t>
+  </si>
+  <si>
+    <t>¡OH DIOS DE AMOR PERFECTO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRES MIS OJOS </t>
+  </si>
+  <si>
+    <t>DEL SANTO AMOR DE CRISTO</t>
+  </si>
+  <si>
+    <t>YO SÉ QUE CRISTO ME AMA</t>
+  </si>
+  <si>
+    <t>DIOS CUIDARÁ DE TI</t>
+  </si>
+  <si>
+    <t>ADELANTE CON VALOR</t>
+  </si>
+  <si>
+    <t>EN PECADOS Y TEMOR</t>
+  </si>
+  <si>
+    <t>VEN A CRISTO</t>
+  </si>
+  <si>
+    <t>LLENA DE AMOR MI CAMINO</t>
+  </si>
+  <si>
+    <t>ES EL TIEMPO DE LA SIEGA</t>
+  </si>
+  <si>
+    <t>NO HALLO CÓMO AGRADAR A JESUCRISTO</t>
+  </si>
+  <si>
+    <t>¡CUÁN GRANDE AMOR!</t>
+  </si>
+  <si>
+    <t>GOZO DA SERVIR A CRISTO</t>
+  </si>
+  <si>
+    <t>DIVINO COMPAÑERO DEL CAMINO</t>
+  </si>
+  <si>
+    <t>AL SONAR DE LA TROMPETA</t>
+  </si>
+  <si>
+    <t>CORAZONES SIEMPRE ALEGRES</t>
+  </si>
+  <si>
+    <t>ES CRISTO QUIEN POR MÍ MURIÓ</t>
+  </si>
+  <si>
+    <t>GOZO TE DARÁ JESÚS</t>
+  </si>
+  <si>
+    <t>A JESÚS PREFIERO</t>
+  </si>
+  <si>
+    <t>CUANDO MI NOMBRE SE ESCUCHE EN LA GLORIA</t>
+  </si>
+  <si>
+    <t>ORACIÓN DE MATRIMONIO</t>
   </si>
 </sst>
 </file>
@@ -1212,21 +1212,21 @@
   <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1619,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1651,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1715,7 +1715,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>251</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1731,7 +1731,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1771,7 +1771,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1795,7 +1795,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1851,7 +1851,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1883,7 +1883,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1891,7 +1891,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1899,7 +1899,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1939,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1995,7 +1995,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2003,7 +2003,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,7 +2011,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -2043,7 +2043,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,7 +2067,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2075,7 +2075,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2091,7 +2091,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -2163,7 +2163,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2171,7 +2171,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2203,7 +2203,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2211,7 +2211,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2235,7 +2235,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2339,7 +2339,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2387,7 +2387,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2411,7 +2411,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2419,7 +2419,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2483,7 +2483,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2499,7 +2499,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2507,7 +2507,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2523,7 +2523,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2539,7 +2539,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2563,7 +2563,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2595,7 +2595,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2603,7 +2603,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2611,7 +2611,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2627,7 +2627,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2699,7 +2699,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2723,7 +2723,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2787,7 +2787,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2795,7 +2795,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2803,7 +2803,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2811,7 +2811,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2827,7 +2827,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2851,7 +2851,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2859,7 +2859,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2875,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2891,7 +2891,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2915,7 +2915,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2939,7 +2939,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2947,7 +2947,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2955,7 +2955,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2963,7 +2963,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2971,7 +2971,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2995,7 +2995,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -3011,7 +3011,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -3035,7 +3035,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -3043,7 +3043,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -3059,7 +3059,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -3067,7 +3067,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -3083,7 +3083,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -3091,7 +3091,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -3107,7 +3107,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -3123,7 +3123,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -3139,7 +3139,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -3179,7 +3179,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,7 +3187,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -3203,7 +3203,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -3235,7 +3235,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -3243,7 +3243,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -3259,7 +3259,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -3291,7 +3291,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -3299,7 +3299,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -3307,7 +3307,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -3323,7 +3323,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
